--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value813.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value813.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.053860643154545</v>
+        <v>1.234694480895996</v>
       </c>
       <c r="B1">
-        <v>3.210444968877984</v>
+        <v>3.122582197189331</v>
       </c>
       <c r="C1">
-        <v>2.119848959558923</v>
+        <v>4.148056507110596</v>
       </c>
       <c r="D1">
-        <v>1.844365251751822</v>
+        <v>0.1956574469804764</v>
       </c>
       <c r="E1">
-        <v>1.777298891578568</v>
+        <v>0.236931636929512</v>
       </c>
     </row>
   </sheetData>
